--- a/biology/Médecine/Hôtel-Dieu_de_Lévis/Hôtel-Dieu_de_Lévis.xlsx
+++ b/biology/Médecine/Hôtel-Dieu_de_Lévis/Hôtel-Dieu_de_Lévis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_de_L%C3%A9vis</t>
+          <t>Hôtel-Dieu_de_Lévis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôtel-Dieu de Lévis est un hôpital situé à Lévis. C'est le principal centre hospitalier de la région de la Chaudière-Appalaches, au Québec.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_de_L%C3%A9vis</t>
+          <t>Hôtel-Dieu_de_Lévis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la fin du XIXe siècle, Lévis s'est développé considérablement en raison de l'activité ferroviaire et maritime. Malgré sa proximité géographique avec Québec, la traversée du Saint-Laurent pour avoir accès à des soins de santé demeure complexe, d'autant plus que l'Hôtel-Dieu de Québec connaît une saturation. En mars 1887, le curé Antoine Gauvreau demande aux Augustines hospitalières de venir prêter main-forte à Lévis. Le projet est concrétisé au décès de la lévisienne Caroline Lagueux en 1891, dont la propriété et les terres serviront à l'établissement d'un hôpital et d'un monastère[1].
-L'hôtel-dieu ouvre ses portes en 1892 et peut accueillir une vingtaine de malades. Six religieuses de l'Hôtel-Dieu de Québec s'établissent à Lévis : Philomène Lemoine (mère supérieure), Henriette Beaulieu, Olympe Chouinard, Léa Lajeunesse, Séraphine Marcotte et Honora Shea. Cinq médecins issus de l'École de médecine de l'Université Laval sont initialement rattachés à l'institution. En 1895, l'accident ferroviaire de Saint-Étienne-de-Lauzon est l'un des événements les plus tragiques gérés par l'hôpital[1]. Des travaux d'agrandissement sont effectués en 1898[2]. En 1918, un appareil à rayons X est offert à l'hôpital par la compagnie du Chemin de fer Intercolonial. Édouard Samson fonde un premier laboratoire de bactériologie l'année suivante. En 1926, les Augustines ouvrent une école de garde-malades[3].
-L'hôpital déménage à son emplacement actuel de la rue Wolfe en 1930. Des médecins spécialistes se joignent à l'institution. De 1960 à 1963, une annexe de 200 lits – le pavillon Saint-Joseph – est construite, doublant ainsi la capacité de l'hôpital[3]. Elle est suivie du pavillon Antoine-Gauvreau en 1965[2].
-La Fondation de l'Hôtel-Dieu de Lévis est créée le 27 août 1980[4]. L'urgence est agrandie en 1995. En 1999, l'hôtel-dieu devient un centre hospitalier affilié universitaire. Le service de dialyse est inauguré en 2001[2].
-En 2010, l'hôtel-dieu comptait 2 200 employés, 260 médecins et 349 lits de courte durée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin du XIXe siècle, Lévis s'est développé considérablement en raison de l'activité ferroviaire et maritime. Malgré sa proximité géographique avec Québec, la traversée du Saint-Laurent pour avoir accès à des soins de santé demeure complexe, d'autant plus que l'Hôtel-Dieu de Québec connaît une saturation. En mars 1887, le curé Antoine Gauvreau demande aux Augustines hospitalières de venir prêter main-forte à Lévis. Le projet est concrétisé au décès de la lévisienne Caroline Lagueux en 1891, dont la propriété et les terres serviront à l'établissement d'un hôpital et d'un monastère.
+L'hôtel-dieu ouvre ses portes en 1892 et peut accueillir une vingtaine de malades. Six religieuses de l'Hôtel-Dieu de Québec s'établissent à Lévis : Philomène Lemoine (mère supérieure), Henriette Beaulieu, Olympe Chouinard, Léa Lajeunesse, Séraphine Marcotte et Honora Shea. Cinq médecins issus de l'École de médecine de l'Université Laval sont initialement rattachés à l'institution. En 1895, l'accident ferroviaire de Saint-Étienne-de-Lauzon est l'un des événements les plus tragiques gérés par l'hôpital. Des travaux d'agrandissement sont effectués en 1898. En 1918, un appareil à rayons X est offert à l'hôpital par la compagnie du Chemin de fer Intercolonial. Édouard Samson fonde un premier laboratoire de bactériologie l'année suivante. En 1926, les Augustines ouvrent une école de garde-malades.
+L'hôpital déménage à son emplacement actuel de la rue Wolfe en 1930. Des médecins spécialistes se joignent à l'institution. De 1960 à 1963, une annexe de 200 lits – le pavillon Saint-Joseph – est construite, doublant ainsi la capacité de l'hôpital. Elle est suivie du pavillon Antoine-Gauvreau en 1965.
+La Fondation de l'Hôtel-Dieu de Lévis est créée le 27 août 1980. L'urgence est agrandie en 1995. En 1999, l'hôtel-dieu devient un centre hospitalier affilié universitaire. Le service de dialyse est inauguré en 2001.
+En 2010, l'hôtel-dieu comptait 2 200 employés, 260 médecins et 349 lits de courte durée.
 </t>
         </is>
       </c>
